--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -459,10 +459,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="23" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="22" width="3.71" style="0" customWidth="1"/>
+    <x:col min="1" max="22" width="3.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:22">
@@ -549,24 +548,23 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="23" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="2" width="3.71" style="2" customWidth="1"/>
-    <x:col min="3" max="3" width="3.71" style="0" customWidth="1"/>
-    <x:col min="4" max="5" width="3.71" style="3" customWidth="1"/>
-    <x:col min="6" max="6" width="3.71" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="3.71" style="4" customWidth="1"/>
-    <x:col min="9" max="9" width="3.71" style="0" customWidth="1"/>
-    <x:col min="10" max="11" width="3.71" style="5" customWidth="1"/>
-    <x:col min="12" max="12" width="3.71" style="0" customWidth="1"/>
-    <x:col min="13" max="14" width="3.71" style="5" customWidth="1"/>
-    <x:col min="15" max="15" width="3.71" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="3.71" style="6" customWidth="1"/>
-    <x:col min="18" max="18" width="3.71" style="0" customWidth="1"/>
-    <x:col min="19" max="20" width="3.71" style="6" customWidth="1"/>
-    <x:col min="21" max="21" width="3.71" style="0" customWidth="1"/>
-    <x:col min="22" max="22" width="3.71" style="7" customWidth="1"/>
+    <x:col min="1" max="2" width="3.710625" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="5" width="3.710625" style="3" customWidth="1"/>
+    <x:col min="6" max="6" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="3.710625" style="4" customWidth="1"/>
+    <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="10" max="11" width="3.710625" style="5" customWidth="1"/>
+    <x:col min="12" max="12" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="13" max="14" width="3.710625" style="5" customWidth="1"/>
+    <x:col min="15" max="15" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="16" max="17" width="3.710625" style="6" customWidth="1"/>
+    <x:col min="18" max="18" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="19" max="20" width="3.710625" style="6" customWidth="1"/>
+    <x:col min="21" max="21" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="22" max="22" width="3.710625" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -101,7 +101,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -126,8 +126,29 @@
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -158,6 +179,34 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -465,63 +514,63 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:22">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="s"/>
+      <x:c r="A1" s="8" t="s"/>
+      <x:c r="B1" s="8" t="s"/>
     </x:row>
     <x:row r="2" spans="1:22">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="1" t="s"/>
+      <x:c r="A2" s="8" t="s"/>
+      <x:c r="B2" s="8" t="s"/>
     </x:row>
     <x:row r="4" spans="1:22">
-      <x:c r="A4" s="2" t="s"/>
-      <x:c r="B4" s="2" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="E4" s="3" t="s"/>
-      <x:c r="G4" s="4" t="s"/>
-      <x:c r="H4" s="4" t="s"/>
-      <x:c r="J4" s="5" t="s"/>
-      <x:c r="K4" s="5" t="s"/>
-      <x:c r="M4" s="5" t="s"/>
-      <x:c r="N4" s="5" t="s"/>
-      <x:c r="P4" s="6" t="s"/>
-      <x:c r="Q4" s="6" t="s"/>
-      <x:c r="S4" s="6" t="s"/>
-      <x:c r="T4" s="6" t="s"/>
-      <x:c r="V4" s="7" t="s"/>
+      <x:c r="A4" s="9" t="s"/>
+      <x:c r="B4" s="9" t="s"/>
+      <x:c r="D4" s="10" t="s"/>
+      <x:c r="E4" s="10" t="s"/>
+      <x:c r="G4" s="11" t="s"/>
+      <x:c r="H4" s="11" t="s"/>
+      <x:c r="J4" s="12" t="s"/>
+      <x:c r="K4" s="12" t="s"/>
+      <x:c r="M4" s="12" t="s"/>
+      <x:c r="N4" s="12" t="s"/>
+      <x:c r="P4" s="13" t="s"/>
+      <x:c r="Q4" s="13" t="s"/>
+      <x:c r="S4" s="13" t="s"/>
+      <x:c r="T4" s="13" t="s"/>
+      <x:c r="V4" s="14" t="s"/>
     </x:row>
     <x:row r="5" spans="1:22">
-      <x:c r="A5" s="2" t="s"/>
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="D5" s="3" t="s"/>
-      <x:c r="E5" s="3" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="4" t="s"/>
-      <x:c r="J5" s="5" t="s"/>
-      <x:c r="K5" s="5" t="s"/>
-      <x:c r="M5" s="5" t="s"/>
-      <x:c r="N5" s="5" t="s"/>
-      <x:c r="P5" s="6" t="s"/>
-      <x:c r="Q5" s="6" t="s"/>
-      <x:c r="S5" s="6" t="s"/>
-      <x:c r="T5" s="6" t="s"/>
-      <x:c r="V5" s="7" t="s"/>
+      <x:c r="A5" s="9" t="s"/>
+      <x:c r="B5" s="9" t="s"/>
+      <x:c r="D5" s="10" t="s"/>
+      <x:c r="E5" s="10" t="s"/>
+      <x:c r="G5" s="11" t="s"/>
+      <x:c r="H5" s="11" t="s"/>
+      <x:c r="J5" s="12" t="s"/>
+      <x:c r="K5" s="12" t="s"/>
+      <x:c r="M5" s="12" t="s"/>
+      <x:c r="N5" s="12" t="s"/>
+      <x:c r="P5" s="13" t="s"/>
+      <x:c r="Q5" s="13" t="s"/>
+      <x:c r="S5" s="13" t="s"/>
+      <x:c r="T5" s="13" t="s"/>
+      <x:c r="V5" s="14" t="s"/>
     </x:row>
     <x:row r="6" spans="1:22">
-      <x:c r="A6" s="2" t="s"/>
-      <x:c r="B6" s="2" t="s"/>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="G6" s="4" t="s"/>
-      <x:c r="H6" s="4" t="s"/>
-      <x:c r="J6" s="5" t="s"/>
-      <x:c r="K6" s="5" t="s"/>
-      <x:c r="M6" s="5" t="s"/>
-      <x:c r="N6" s="5" t="s"/>
-      <x:c r="P6" s="6" t="s"/>
-      <x:c r="Q6" s="6" t="s"/>
-      <x:c r="S6" s="6" t="s"/>
-      <x:c r="T6" s="6" t="s"/>
-      <x:c r="V6" s="7" t="s"/>
+      <x:c r="A6" s="9" t="s"/>
+      <x:c r="B6" s="9" t="s"/>
+      <x:c r="D6" s="10" t="s"/>
+      <x:c r="E6" s="10" t="s"/>
+      <x:c r="G6" s="11" t="s"/>
+      <x:c r="H6" s="11" t="s"/>
+      <x:c r="J6" s="12" t="s"/>
+      <x:c r="K6" s="12" t="s"/>
+      <x:c r="M6" s="12" t="s"/>
+      <x:c r="N6" s="12" t="s"/>
+      <x:c r="P6" s="13" t="s"/>
+      <x:c r="Q6" s="13" t="s"/>
+      <x:c r="S6" s="13" t="s"/>
+      <x:c r="T6" s="13" t="s"/>
+      <x:c r="V6" s="14" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -550,21 +599,21 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="3.710625" style="2" customWidth="1"/>
+    <x:col min="1" max="2" width="3.710625" style="9" customWidth="1"/>
     <x:col min="3" max="3" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="5" width="3.710625" style="3" customWidth="1"/>
+    <x:col min="4" max="5" width="3.710625" style="10" customWidth="1"/>
     <x:col min="6" max="6" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="3.710625" style="4" customWidth="1"/>
+    <x:col min="7" max="8" width="3.710625" style="11" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="11" width="3.710625" style="5" customWidth="1"/>
+    <x:col min="10" max="11" width="3.710625" style="12" customWidth="1"/>
     <x:col min="12" max="12" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="13" max="14" width="3.710625" style="5" customWidth="1"/>
+    <x:col min="13" max="14" width="3.710625" style="12" customWidth="1"/>
     <x:col min="15" max="15" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="3.710625" style="6" customWidth="1"/>
+    <x:col min="16" max="17" width="3.710625" style="13" customWidth="1"/>
     <x:col min="18" max="18" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="19" max="20" width="3.710625" style="6" customWidth="1"/>
+    <x:col min="19" max="20" width="3.710625" style="13" customWidth="1"/>
     <x:col min="21" max="21" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="22" max="22" width="3.710625" style="7" customWidth="1"/>
+    <x:col min="22" max="22" width="3.710625" style="14" customWidth="1"/>
   </x:cols>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -101,7 +101,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="15">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -126,29 +126,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -179,34 +158,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -514,63 +465,63 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:22">
-      <x:c r="A1" s="8" t="s"/>
-      <x:c r="B1" s="8" t="s"/>
+      <x:c r="A1" s="1" t="s"/>
+      <x:c r="B1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:22">
-      <x:c r="A2" s="8" t="s"/>
-      <x:c r="B2" s="8" t="s"/>
+      <x:c r="A2" s="1" t="s"/>
+      <x:c r="B2" s="1" t="s"/>
     </x:row>
     <x:row r="4" spans="1:22">
-      <x:c r="A4" s="9" t="s"/>
-      <x:c r="B4" s="9" t="s"/>
-      <x:c r="D4" s="10" t="s"/>
-      <x:c r="E4" s="10" t="s"/>
-      <x:c r="G4" s="11" t="s"/>
-      <x:c r="H4" s="11" t="s"/>
-      <x:c r="J4" s="12" t="s"/>
-      <x:c r="K4" s="12" t="s"/>
-      <x:c r="M4" s="12" t="s"/>
-      <x:c r="N4" s="12" t="s"/>
-      <x:c r="P4" s="13" t="s"/>
-      <x:c r="Q4" s="13" t="s"/>
-      <x:c r="S4" s="13" t="s"/>
-      <x:c r="T4" s="13" t="s"/>
-      <x:c r="V4" s="14" t="s"/>
+      <x:c r="A4" s="2" t="s"/>
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="G4" s="4" t="s"/>
+      <x:c r="H4" s="4" t="s"/>
+      <x:c r="J4" s="5" t="s"/>
+      <x:c r="K4" s="5" t="s"/>
+      <x:c r="M4" s="5" t="s"/>
+      <x:c r="N4" s="5" t="s"/>
+      <x:c r="P4" s="6" t="s"/>
+      <x:c r="Q4" s="6" t="s"/>
+      <x:c r="S4" s="6" t="s"/>
+      <x:c r="T4" s="6" t="s"/>
+      <x:c r="V4" s="7" t="s"/>
     </x:row>
     <x:row r="5" spans="1:22">
-      <x:c r="A5" s="9" t="s"/>
-      <x:c r="B5" s="9" t="s"/>
-      <x:c r="D5" s="10" t="s"/>
-      <x:c r="E5" s="10" t="s"/>
-      <x:c r="G5" s="11" t="s"/>
-      <x:c r="H5" s="11" t="s"/>
-      <x:c r="J5" s="12" t="s"/>
-      <x:c r="K5" s="12" t="s"/>
-      <x:c r="M5" s="12" t="s"/>
-      <x:c r="N5" s="12" t="s"/>
-      <x:c r="P5" s="13" t="s"/>
-      <x:c r="Q5" s="13" t="s"/>
-      <x:c r="S5" s="13" t="s"/>
-      <x:c r="T5" s="13" t="s"/>
-      <x:c r="V5" s="14" t="s"/>
+      <x:c r="A5" s="2" t="s"/>
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="E5" s="3" t="s"/>
+      <x:c r="G5" s="4" t="s"/>
+      <x:c r="H5" s="4" t="s"/>
+      <x:c r="J5" s="5" t="s"/>
+      <x:c r="K5" s="5" t="s"/>
+      <x:c r="M5" s="5" t="s"/>
+      <x:c r="N5" s="5" t="s"/>
+      <x:c r="P5" s="6" t="s"/>
+      <x:c r="Q5" s="6" t="s"/>
+      <x:c r="S5" s="6" t="s"/>
+      <x:c r="T5" s="6" t="s"/>
+      <x:c r="V5" s="7" t="s"/>
     </x:row>
     <x:row r="6" spans="1:22">
-      <x:c r="A6" s="9" t="s"/>
-      <x:c r="B6" s="9" t="s"/>
-      <x:c r="D6" s="10" t="s"/>
-      <x:c r="E6" s="10" t="s"/>
-      <x:c r="G6" s="11" t="s"/>
-      <x:c r="H6" s="11" t="s"/>
-      <x:c r="J6" s="12" t="s"/>
-      <x:c r="K6" s="12" t="s"/>
-      <x:c r="M6" s="12" t="s"/>
-      <x:c r="N6" s="12" t="s"/>
-      <x:c r="P6" s="13" t="s"/>
-      <x:c r="Q6" s="13" t="s"/>
-      <x:c r="S6" s="13" t="s"/>
-      <x:c r="T6" s="13" t="s"/>
-      <x:c r="V6" s="14" t="s"/>
+      <x:c r="A6" s="2" t="s"/>
+      <x:c r="B6" s="2" t="s"/>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="G6" s="4" t="s"/>
+      <x:c r="H6" s="4" t="s"/>
+      <x:c r="J6" s="5" t="s"/>
+      <x:c r="K6" s="5" t="s"/>
+      <x:c r="M6" s="5" t="s"/>
+      <x:c r="N6" s="5" t="s"/>
+      <x:c r="P6" s="6" t="s"/>
+      <x:c r="Q6" s="6" t="s"/>
+      <x:c r="S6" s="6" t="s"/>
+      <x:c r="T6" s="6" t="s"/>
+      <x:c r="V6" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -599,21 +550,21 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="3.710625" style="9" customWidth="1"/>
+    <x:col min="1" max="2" width="3.710625" style="2" customWidth="1"/>
     <x:col min="3" max="3" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="5" width="3.710625" style="10" customWidth="1"/>
+    <x:col min="4" max="5" width="3.710625" style="3" customWidth="1"/>
     <x:col min="6" max="6" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="3.710625" style="11" customWidth="1"/>
+    <x:col min="7" max="8" width="3.710625" style="4" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="11" width="3.710625" style="12" customWidth="1"/>
+    <x:col min="10" max="11" width="3.710625" style="5" customWidth="1"/>
     <x:col min="12" max="12" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="13" max="14" width="3.710625" style="12" customWidth="1"/>
+    <x:col min="13" max="14" width="3.710625" style="5" customWidth="1"/>
     <x:col min="15" max="15" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="3.710625" style="13" customWidth="1"/>
+    <x:col min="16" max="17" width="3.710625" style="6" customWidth="1"/>
     <x:col min="18" max="18" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="19" max="20" width="3.710625" style="13" customWidth="1"/>
+    <x:col min="19" max="20" width="3.710625" style="6" customWidth="1"/>
     <x:col min="21" max="21" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="22" max="22" width="3.710625" style="14" customWidth="1"/>
+    <x:col min="22" max="22" width="3.710625" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -527,14 +527,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -570,14 +563,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -23,7 +23,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -464,7 +464,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:V6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -546,7 +546,7 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -109,61 +109,61 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="8">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="8">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
